--- a/data/trans_bre/P25_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_1-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,12 +652,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,25 +667,45 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-1,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
@@ -668,12 +720,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,18</t>
+          <t>0,0; 6,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 0,0</t>
+          <t>-4,35; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,25 +735,45 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 0,0</t>
+          <t>0,61; 5,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-6,17; 0,0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 0,0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,12 +792,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -735,27 +807,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,86</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>194,45%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>241,89%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>140,3%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>51,64%</t>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>136,09%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-8,6%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>51,77%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>132,66%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,63</t>
+          <t>-0,55; 3,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,38</t>
+          <t>0,44; 4,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 2,73</t>
+          <t>-0,72; 2,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 4,54</t>
+          <t>-2,69; 2,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-2,6; 4,03</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 5,73</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>172,65%</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>252,49%</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>159,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-32,84%</t>
+          <t>183,97%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-32,94%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-33,01%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-32,23%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,23</t>
+          <t>-0,54; 3,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,31</t>
+          <t>-0,34; 2,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,12</t>
+          <t>-1,78; 2,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 1,47</t>
+          <t>-3,09; 1,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-76,0; —</t>
+          <t>-7,7; 1,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-78,91; —</t>
+          <t>-10,19; 2,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-76,5; 370,64</t>
+          <t>-71,38; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-88,13; 86,97</t>
+          <t>-56,86; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-72,66; 355,26</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-84,48; 93,08</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-87,28; 118,29</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,69</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,51</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-53,54%</t>
+          <t>-8,52</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-46,1%</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-61,04%</t>
+          <t>-54,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-77,09%</t>
+          <t>-46,05%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-61,54%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-55,92%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-77,11%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-58,54%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,12; -1,1</t>
+          <t>-9,52; -1,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 0,16</t>
+          <t>-6,12; 0,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,29; -1,25</t>
+          <t>-8,63; -1,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -3,62</t>
+          <t>-12,34; -2,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,01; -13,34</t>
+          <t>-15,5; -4,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,01; 9,17</t>
+          <t>-11,85; -1,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-82,88; -19,54</t>
+          <t>-78,2; -16,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-93,24; -42,04</t>
+          <t>-76,64; 19,9</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-83,11; -19,11</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-77,41; -18,13</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-93,17; -42,64</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-81,19; -17,2</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,27%</t>
+          <t>-6,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-21,56%</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-13,05%</t>
+          <t>-10,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-31,72%</t>
+          <t>-21,54%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-12,07%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-24,54%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-31,71%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-15,55%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 5,44</t>
+          <t>-7,5; 4,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 3,2</t>
+          <t>-8,6; 2,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 4,14</t>
+          <t>-7,51; 4,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 1,33</t>
+          <t>-11,82; 3,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 66,56</t>
+          <t>-16,12; 0,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-53,52; 29,6</t>
+          <t>-12,06; 4,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,36; 37,36</t>
+          <t>-53,37; 58,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,7; 10,55</t>
+          <t>-51,94; 24,88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-43,35; 38,57</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-51,49; 21,89</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-58,2; 6,0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-44,66; 23,5</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-12,61%</t>
+          <t>-7,28</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-14,5%</t>
+          <t>-5,4</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>-10,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-23,17%</t>
+          <t>-16,35%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15,41%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>40,58%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-23,15%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-15,98%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 5,76</t>
+          <t>-14,23; 5,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 4,64</t>
+          <t>-11,91; 4,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 11,52</t>
+          <t>-4,67; 11,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 4,88</t>
+          <t>-2,52; 17,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,32; 22,56</t>
+          <t>-18,93; 4,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,8; 25,3</t>
+          <t>-15,43; 6,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 68,78</t>
+          <t>-38,64; 23,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,38; 19,29</t>
+          <t>-42,1; 21,77</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-18,92; 69,22</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-10,39; 121,08</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-51,32; 14,61</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-40,38; 23,11</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,93%</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-23,09%</t>
+          <t>-7,63%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-23,1%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-9,54%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,56</t>
+          <t>-2,29; 2,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,44</t>
+          <t>-2,39; 1,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,24</t>
+          <t>-1,54; 2,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 0,45</t>
+          <t>-1,97; 2,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 34,48</t>
+          <t>-5,96; 0,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 24,42</t>
+          <t>-4,3; 1,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 37,19</t>
+          <t>-23,74; 31,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-44,35; 6,49</t>
+          <t>-30,29; 22,65</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-19,79; 39,35</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-20,59; 38,13</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-45,29; 4,6</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-31,42; 17,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
